--- a/Planilha_Visita_Site.xlsx
+++ b/Planilha_Visita_Site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trabalhos em python\aplicativo_relatorio_de_visita_externa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CD85319-0077-4943-B307-7CE7FBBC4F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB51846-7B9E-40E9-B27A-B7259F02DC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informações do Site" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="200">
   <si>
     <t>ID do site</t>
   </si>
@@ -311,259 +311,341 @@
     <t>Sem restrições adicionais.</t>
   </si>
   <si>
-    <t>tipo_site</t>
-  </si>
-  <si>
-    <t>tipo_energia</t>
-  </si>
-  <si>
-    <t>voltagem</t>
+    <t>foto_item_lista</t>
+  </si>
+  <si>
+    <t>RUA DE ACESSO AO IMÓVEL (direita)</t>
+  </si>
+  <si>
+    <t>RUA DE ACESSO AO IMÓVEL (esquerda)</t>
+  </si>
+  <si>
+    <t>CALÇADA (direita)</t>
+  </si>
+  <si>
+    <t>CALÇADA (esquerda)</t>
+  </si>
+  <si>
+    <t>FRENTE DO IMÓVEL (1ª foto)</t>
+  </si>
+  <si>
+    <t>FRENTE DO IMÓVEL (2ª foto)</t>
+  </si>
+  <si>
+    <t>VIZINHO DO IMÓVEL (direita)</t>
+  </si>
+  <si>
+    <t>VIZINHO DO IMÓVEL (esquerda)</t>
+  </si>
+  <si>
+    <t>POSTE EM FRENTE AO IMÓVEL / Coordenadas GPS</t>
+  </si>
+  <si>
+    <t>RELÓGIO MAIS PRÓXIMO / Coordenadas GPS (VERIFICAR TIPO DE ENERGIA)</t>
+  </si>
+  <si>
+    <t>TRAFO MAIS PRÓXIMO / Coordenadas GPS</t>
+  </si>
+  <si>
+    <t>FOTO 1 DA REDE NA RUA DO IMÓVEL</t>
+  </si>
+  <si>
+    <t>FOTO 2 DA REDE NA RUA DO IMÓVEL</t>
+  </si>
+  <si>
+    <t>FOTO 1 DA REDE NA RUA PRINCIPAL</t>
+  </si>
+  <si>
+    <t>FOTO 2 DA REDE NA RUA PRINCIPAL</t>
+  </si>
+  <si>
+    <t>FOTO DO SITE (lado 1 - Frente para trás)</t>
+  </si>
+  <si>
+    <t>FOTO DO SITE (lado 2 - Direita para esquerda)</t>
+  </si>
+  <si>
+    <t>FOTO DO SITE (lado 3 - Trás para frente)</t>
+  </si>
+  <si>
+    <t>FOTO DO SITE (lado 4 - Esquerda para direita)</t>
+  </si>
+  <si>
+    <t>FOTO DO SITE (diagonal 1)</t>
+  </si>
+  <si>
+    <t>FOTO DO SITE (diagonal 2)</t>
+  </si>
+  <si>
+    <t>VISÃO GERAL DA ÁREA LOCADA</t>
+  </si>
+  <si>
+    <t>FOTOS VOLTADAS PARA DENTRO DO TERRENO DOS 4 CANTOS DO IMÓVEL (quando possível)</t>
+  </si>
+  <si>
+    <t>FOTOS DE TODAS AS CONSTRUÇÕES, ÁRVORES E DETALHES NO IMÓVEL</t>
+  </si>
+  <si>
+    <t>FOTOS DE TODO ACESSO DA PORTARIA OU ENTRADA ATÉ A ÁREA LOCADA (existente ou a construir e em caso de condomínio)</t>
+  </si>
+  <si>
+    <t>Coordenadas GPS do SITE</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 0°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 30°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 60°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 90°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 120°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 150°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 180°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 210°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 240°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 270°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 300°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (meio da área) – 330°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 0°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 30°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 60°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 90°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 120°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 150°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 180°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 210°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 240°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 270°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 300°</t>
+  </si>
+  <si>
+    <t>12 FOTOS 360 (frente do imóvel) – 330°</t>
+  </si>
+  <si>
+    <t>PANORÂMICA (ponto 360, iniciando ao Norte)</t>
+  </si>
+  <si>
+    <t>site_id</t>
   </si>
   <si>
     <t>foto_item</t>
   </si>
   <si>
-    <t>foto_seq</t>
-  </si>
-  <si>
-    <t>110V</t>
-  </si>
-  <si>
-    <t>RUA DE ACESSO AO IMÓVEL (direita)</t>
-  </si>
-  <si>
-    <t>Rooftop</t>
-  </si>
-  <si>
-    <t>Bi</t>
-  </si>
-  <si>
-    <t>RUA DE ACESSO AO IMÓVEL (esquerda)</t>
-  </si>
-  <si>
-    <t>Tri</t>
-  </si>
-  <si>
-    <t>CALÇADA (direita)</t>
-  </si>
-  <si>
-    <t>CALÇADA (esquerda)</t>
-  </si>
-  <si>
-    <t>FRENTE DO IMÓVEL (1ª foto)</t>
-  </si>
-  <si>
-    <t>FRENTE DO IMÓVEL (2ª foto)</t>
-  </si>
-  <si>
-    <t>VIZINHO DO IMÓVEL (direita)</t>
-  </si>
-  <si>
-    <t>VIZINHO DO IMÓVEL (esquerda)</t>
-  </si>
-  <si>
-    <t>POSTE EM FRENTE AO IMÓVEL / Coordenadas GPS + Capturar Coordenadas (texto)</t>
-  </si>
-  <si>
-    <t>RELÓGIO MAIS PRÓXIMO / Coordenadas GPS (VERIFICAR TIPO DE ENERGIA) + Capturar Coordenadas (texto)</t>
-  </si>
-  <si>
-    <t>TRAFO MAIS PRÓXIMO / Coordenadas GPS + Capturar Coordenadas (texto)</t>
-  </si>
-  <si>
-    <t>FOTO 1 DA REDE NA RUA DO IMÓVEL</t>
-  </si>
-  <si>
-    <t>FOTO 2 DA REDE NA RUA DO IMÓVEL</t>
-  </si>
-  <si>
-    <t>FOTO 1 DA REDE NA RUA PRINCIPAL</t>
-  </si>
-  <si>
-    <t>FOTO 2 DA REDE NA RUA PRINCIPAL</t>
-  </si>
-  <si>
-    <t>FOTO DO SITE (lado 1 - Frente para trás)</t>
-  </si>
-  <si>
-    <t>FOTO DO SITE (lado 2 - Direita para esquerda)</t>
-  </si>
-  <si>
-    <t>FOTO DO SITE (lado 3 - Trás para frente)</t>
-  </si>
-  <si>
-    <t>FOTO DO SITE (lado 4 - Esquerda para direita)</t>
-  </si>
-  <si>
-    <t>FOTO DO SITE (diagonal 1)</t>
-  </si>
-  <si>
-    <t>FOTO DO SITE (diagonal 2)</t>
-  </si>
-  <si>
-    <t>VISÃO GERAL DA ÁREA LOCADA</t>
-  </si>
-  <si>
-    <t>FOTOS VOLTADAS PARA DENTRO DO TERRENO DOS 4 CANTOS DO IMÓVEL (1/4)</t>
-  </si>
-  <si>
-    <t>FOTOS VOLTADAS PARA DENTRO DO TERRENO DOS 4 CANTOS DO IMÓVEL (2/4)</t>
-  </si>
-  <si>
-    <t>FOTOS VOLTADAS PARA DENTRO DO TERRENO DOS 4 CANTOS DO IMÓVEL (3/4)</t>
-  </si>
-  <si>
-    <t>FOTOS VOLTADAS PARA DENTRO DO TERRENO DOS 4 CANTOS DO IMÓVEL (4/4)</t>
-  </si>
-  <si>
-    <t>FOTOS DE TODAS AS CONSTRUÇÕES, ÁRVORES E DETALHES NO IMÓVEL (1/3)</t>
-  </si>
-  <si>
-    <t>FOTOS DE TODAS AS CONSTRUÇÕES, ÁRVORES E DETALHES NO IMÓVEL (2/3)</t>
-  </si>
-  <si>
-    <t>FOTOS DE TODAS AS CONSTRUÇÕES, ÁRVORES E DETALHES NO IMÓVEL (3/3)</t>
-  </si>
-  <si>
-    <t>FOTOS DE TODO ACESSO DA PORTARIA OU ENTRADA ATÉ A ÁREA LOCADA (1/3)</t>
-  </si>
-  <si>
-    <t>FOTOS DE TODO ACESSO DA PORTARIA OU ENTRADA ATÉ A ÁREA LOCADA (2/3)</t>
-  </si>
-  <si>
-    <t>FOTOS DE TODO ACESSO DA PORTARIA OU ENTRADA ATÉ A ÁREA LOCADA (3/3)</t>
-  </si>
-  <si>
-    <t>Coordenadas GPS do SITE + Capturar Coordenadas (texto)</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 0°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 30°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 60°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 90°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 120°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 150°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 180°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 210°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 240°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 270°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 300°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (meio da área) 330°</t>
-  </si>
-  <si>
-    <t>PANORÂMICA (ponto central, iniciando Norte)</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 0°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 30°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 60°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 90°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 120°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 150°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 180°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 210°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 240°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 270°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 300°</t>
-  </si>
-  <si>
-    <t>12 FOTOS 360 (frente do imóvel) 330°</t>
-  </si>
-  <si>
-    <t>CONTA DE CONCESSIONÁRIA</t>
-  </si>
-  <si>
-    <t>site_id</t>
-  </si>
-  <si>
     <t>arquivo_url</t>
   </si>
   <si>
-    <t>gps_lat</t>
-  </si>
-  <si>
-    <t>gps_lng</t>
-  </si>
-  <si>
     <t>observacao</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/demo/image/upload/v1/site001_frente1.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/demo/image/upload/v1/site001_frente2.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/demo/image/upload/v1/site001_poste.jpg</t>
-  </si>
-  <si>
-    <t>Coordenadas capturadas: -15.6126,-56.0981</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/demo/image/upload/v1/site001_360_000.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/demo/image/upload/v1/site001_360_030.jpg</t>
+    <t>origem_campo</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>rua_de_acesso_ao_imovel_direita</t>
+  </si>
+  <si>
+    <t>rua_de_acesso_ao_imovel_esquerda</t>
+  </si>
+  <si>
+    <t>calcada_direita</t>
+  </si>
+  <si>
+    <t>calcada_esquerda</t>
+  </si>
+  <si>
+    <t>frente_do_imovel_1a_foto</t>
+  </si>
+  <si>
+    <t>frente_do_imovel_2a_foto</t>
+  </si>
+  <si>
+    <t>vizinho_do_imovel_direita</t>
+  </si>
+  <si>
+    <t>vizinho_do_imovel_esquerda</t>
+  </si>
+  <si>
+    <t>poste_em_frente_ao_imovel_coordenadas_gps</t>
+  </si>
+  <si>
+    <t>relogio_mais_proximo_coordenadas_gps_verificar_tipo_de_energ</t>
+  </si>
+  <si>
+    <t>trafo_mais_proximo_coordenadas_gps</t>
+  </si>
+  <si>
+    <t>foto_1_da_rede_na_rua_do_imovel</t>
+  </si>
+  <si>
+    <t>foto_2_da_rede_na_rua_do_imovel</t>
+  </si>
+  <si>
+    <t>foto_1_da_rede_na_rua_principal</t>
+  </si>
+  <si>
+    <t>foto_2_da_rede_na_rua_principal</t>
+  </si>
+  <si>
+    <t>foto_do_site_lado_1_frente_para_tras</t>
+  </si>
+  <si>
+    <t>foto_do_site_lado_2_direita_para_esquerda</t>
+  </si>
+  <si>
+    <t>foto_do_site_lado_3_tras_para_frente</t>
+  </si>
+  <si>
+    <t>foto_do_site_lado_4_esquerda_para_direita</t>
+  </si>
+  <si>
+    <t>foto_do_site_diagonal_1</t>
+  </si>
+  <si>
+    <t>foto_do_site_diagonal_2</t>
+  </si>
+  <si>
+    <t>visao_geral_da_area_locada</t>
+  </si>
+  <si>
+    <t>fotos_voltadas_para_dentro_do_terreno_dos_4_cantos_do_imovel</t>
+  </si>
+  <si>
+    <t>fotos_de_todas_as_construcoes_arvores_e_detalhes_no_imovel</t>
+  </si>
+  <si>
+    <t>fotos_de_todo_acesso_da_portaria_ou_entrada_ate_a_area_locad</t>
+  </si>
+  <si>
+    <t>coordenadas_gps_do_site</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_0</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_30</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_60</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_90</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_120</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_150</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_180</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_210</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_240</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_270</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_300</t>
+  </si>
+  <si>
+    <t>12_fotos_360_meio_da_area_330</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_0</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_30</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_60</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_90</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_120</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_150</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_180</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_210</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_240</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_270</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_300</t>
+  </si>
+  <si>
+    <t>12_fotos_360_frente_do_imovel_330</t>
+  </si>
+  <si>
+    <t>panoramica_ponto_360_iniciando_ao_norte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -586,16 +668,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -987,18 +1066,6 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1006,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1098,7 +1165,7 @@
     <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1000 A2:E1000" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"SIM,NÃO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1000" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1000" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"SIM,NÃO,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1195,24 +1262,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
-          <x14:formula1>
-            <xm:f>Listas!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
-          <x14:formula1>
-            <xm:f>Listas!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1415,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1424,373 +1473,264 @@
     <col min="1" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>97</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>99</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>100</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>101</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>102</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>103</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>104</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>105</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>107</v>
       </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>108</v>
       </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>109</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>110</v>
       </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1800,168 +1740,452 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="104.85546875" customWidth="1"/>
+    <col min="3" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="78.5703125" customWidth="1"/>
+    <col min="6" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
         <v>159</v>
       </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
         <v>160</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
         <v>161</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
         <v>162</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
         <v>164</v>
       </c>
-      <c r="E2">
-        <v>-15.612299999999999</v>
-      </c>
-      <c r="F2">
-        <v>-56.097799999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
         <v>165</v>
       </c>
-      <c r="E3">
-        <v>-15.612399999999999</v>
-      </c>
-      <c r="F3">
-        <v>-56.097900000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
         <v>166</v>
       </c>
-      <c r="E4">
-        <v>-15.6126</v>
-      </c>
-      <c r="F4">
-        <v>-56.098100000000002</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5">
-        <v>-15.612500000000001</v>
-      </c>
-      <c r="F5">
-        <v>-56.097999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>134</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6">
-        <v>-15.612500000000001</v>
-      </c>
-      <c r="F6">
-        <v>-56.097999999999999</v>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3875FCF0-405B-4AD4-B4D9-088BA4343BE3}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
-          <x14:formula1>
-            <xm:f>Listas!$D$2:$D$60</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
-          <x14:formula1>
-            <xm:f>Listas!$E$2:$E$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Planilha_Visita_Site.xlsx
+++ b/Planilha_Visita_Site.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trabalhos em python\aplicativo_relatorio_de_visita_externa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB51846-7B9E-40E9-B27A-B7259F02DC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64ED5B07-FEF4-49CA-AD7C-5E4E6D556EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informações do Site" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1742,18 +1742,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="104.85546875" customWidth="1"/>
-    <col min="3" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="78.5703125" customWidth="1"/>
-    <col min="6" max="10" width="27.42578125" customWidth="1"/>
+    <col min="1" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
